--- a/Diagrammer/Delfinen Risikoanalyse.xlsx
+++ b/Diagrammer/Delfinen Risikoanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\livgu\OneDrive\Dokumenter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\livgu\OneDrive\Dokumenter\GitHub\Delfinen_G\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40FC8DE-5A21-4D1F-8704-B7CA70A2390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4818433D-E825-4CA0-8FBF-6E4A83E92C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EFDE6B4-8A6F-45C6-BC62-DE680FEF7320}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Scope creep</t>
   </si>
   <si>
-    <t>Misforstå opgavebeskrivelsen</t>
-  </si>
-  <si>
     <t>Manglende forståelse for teori</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Brug Lasse, samt tale om det I gruppen</t>
+  </si>
+  <si>
+    <t>Misforstå opgavebeskrivelse</t>
   </si>
 </sst>
 </file>
@@ -158,9 +158,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +175,1515 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Risikoanalyse</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24643813297315625"/>
+                  <c:y val="-1.1988949368204481E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{348D54A7-A907-4357-9584-8E13A8C12B65}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8613306603358218E-2"/>
+                  <c:y val="5.1262321021152489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4098A578-0714-4A80-B2DD-5A69CDF8E690}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.961529514177163E-2"/>
+                  <c:y val="9.2078836605740774E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3D7BBAD-35E4-4182-AB03-08C99F4424CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18200843694046356"/>
+                  <c:y val="9.5410760470533387E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{768A8D08-0113-4F11-BC60-D5D9475E2EEF}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D56E441-9010-4073-B1B5-B2281FDBF3E6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0232018449944213E-2"/>
+                  <c:y val="-6.7593683094344784E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98F30263-94BA-486D-B88F-1799DE912BB3}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19788870581153528"/>
+                  <c:y val="7.5868653469459035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{70564DB1-1823-4A57-A401-1CC57639BABD}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7342319-B96A-4EF6-93D0-8E1B6A8792D6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-DK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-DCA0-415A-B8A7-5E04232C8D2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$E$5:$E$12</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>Undervurdering af, hvor lang tid opgaven tager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Git</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mangelfuld planlægning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sygdom/andet fravær</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scope creep</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Misforstå opgavebeskrivelse</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manglende forståelse for teori</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SCRUM praksis</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCA0-415A-B8A7-5E04232C8D2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="935182495"/>
+        <c:axId val="935175775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="935182495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Sandsynlighed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935175775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="935175775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Konsekvens</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9492241364377962E-2"/>
+              <c:y val="0.38220374747158908"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935182495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403389</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91499</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A99C29-A142-E9D7-BDC6-73E252400475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -194,9 +1702,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Violet II">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,37 +1712,37 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="632E62"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EAE5EB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="92278F"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="9B57D3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="755DD9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="665EB8"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="45A5ED"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="5982DB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0066FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="666699"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +1848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +1990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E70C68-28FD-4434-A623-9C58EA8053D2}">
   <dimension ref="E4:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="101" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="5:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -560,15 +2068,15 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="5:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -580,10 +2088,10 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -600,10 +2108,10 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="5:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -620,15 +2128,15 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="5:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -640,15 +2148,15 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="5:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -656,16 +2164,16 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
         <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -676,17 +2184,19 @@
       <c r="H12">
         <v>25</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>